--- a/Excel/Dialog.xlsx
+++ b/Excel/Dialog.xlsx
@@ -1,41 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="22428" windowHeight="10152" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DialogConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>也 赵</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0：对话（dialog）
+1：主动选择（choice）
+2：被动判断（switch）
+3：设置变量（variable）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
-  <si>
-    <t>int/id/id</t>
-  </si>
-  <si>
-    <t>int/wordid/文字id</t>
-  </si>
-  <si>
-    <t>int/npcid/npcid</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+  <si>
+    <t>string/dialog/对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello World!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[通讯正在接入]</t>
+  </si>
+  <si>
+    <t>[正在建立连接]</t>
+  </si>
+  <si>
+    <t>[正在接收消息]</t>
+  </si>
+  <si>
+    <t>喂喂？</t>
+  </si>
+  <si>
+    <t>这玩意儿能用吗？</t>
+  </si>
+  <si>
+    <t>有谁能收到吗？</t>
+  </si>
+  <si>
+    <t>谁在说话？</t>
+  </si>
+  <si>
+    <t>int/id/剧情id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int/type/剧情类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁在说话？|我收到了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎呀呀呀，不好意思。我应该先自我介绍一下的。</t>
+  </si>
+  <si>
+    <t>我只是收到回复太激动了。</t>
+  </si>
+  <si>
+    <t>我叫泰勒。我是，原本是瓦里亚号星际飞船上的一名宇航员。</t>
+  </si>
+  <si>
+    <t>string/comment/备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的飞船在个什么卫星上坠毁了，我也不知道具体是在哪儿。</t>
+  </si>
+  <si>
+    <t>我进了一个逃生舱，不过我不知道有没有别人也通过逃生舱逃生。</t>
+  </si>
+  <si>
+    <t>我的宇航服上的传感器说这里的大气可供呼吸，这简直是个奇迹。</t>
+  </si>
+  <si>
+    <t>只是，我身上既没吃的也没喝的。逃生舱里有个工具箱，里面都是些最普通的工具。</t>
+  </si>
+  <si>
+    <t>我想办法启用了逃生舱内的便携通讯器，但是——除了走运的你，好像没人收到我发出的信号。</t>
+  </si>
+  <si>
+    <t>我也不知道你是谁，在哪里。</t>
+  </si>
+  <si>
+    <t>瓦里亚号？|“原本”？出什么事了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“原本”？出什么事了？</t>
+  </si>
+  <si>
+    <t>string[]/choiceGoTo/选择转到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch</t>
+  </si>
+  <si>
+    <t>whois</t>
+  </si>
+  <si>
+    <t>Variainfo</t>
+  </si>
+  <si>
+    <t>whois|Variainfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variainfo|whathappened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string/chapter/章节名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -43,7 +164,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -65,37 +207,91 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+  <cellStyles count="19">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -394,6 +590,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -433,95 +630,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" customWidth="1"/>
+    <col min="5" max="6" width="29.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
       <c r="C6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Excel/Dialog.xlsx
+++ b/Excel/Dialog.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+    <workbookView windowWidth="22968" windowHeight="10152" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DialogConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -22,22 +17,41 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>也 赵</author>
+    <author>MelodySo</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
+            <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>0：对话（dialog）
+          <t xml:space="preserve">0：对话（dialog）
 1：主动选择（choice）
 2：被动判断（switch）
 3：设置变量（variable）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">这里的表达式必须严格遵循以下格式，其中n为常数或变量:
+&gt;n 大于
+&lt;n 小于
+'==n 等于
+&lt;=n 小于等于
+&gt;=n 大于等于
+'=n 赋值</t>
         </r>
       </text>
     </comment>
@@ -46,14 +60,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+  <si>
+    <t>int/id/剧情id</t>
+  </si>
+  <si>
+    <t>string/chapter/章节名字</t>
+  </si>
+  <si>
+    <t>int/type/剧情类型</t>
+  </si>
   <si>
     <t>string/dialog/对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]/choiceGoTo/选择转到</t>
+  </si>
+  <si>
+    <t>string/variable/变量名</t>
+  </si>
+  <si>
+    <t>string/expression/表达式</t>
+  </si>
+  <si>
+    <t>int/switchGoTo/判断转到</t>
+  </si>
+  <si>
+    <t>string/comment/备注</t>
   </si>
   <si>
     <t>Hello World!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在游戏开始前，需要设置一串初始化的变量参数。</t>
+  </si>
+  <si>
+    <t>launch</t>
   </si>
   <si>
     <t>[通讯正在接入]</t>
@@ -74,37 +116,42 @@
     <t>有谁能收到吗？</t>
   </si>
   <si>
+    <t>谁在说话？|我收到了。</t>
+  </si>
+  <si>
+    <t>whois|Variainfo</t>
+  </si>
+  <si>
+    <t>whois</t>
+  </si>
+  <si>
+    <t>哎呀呀呀，不好意思。我应该先自我介绍一下的。</t>
+  </si>
+  <si>
     <t>谁在说话？</t>
   </si>
   <si>
-    <t>int/id/剧情id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int/type/剧情类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谁在说话？|我收到了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哎呀呀呀，不好意思。我应该先自我介绍一下的。</t>
-  </si>
-  <si>
     <t>我只是收到回复太激动了。</t>
   </si>
   <si>
     <t>我叫泰勒。我是，原本是瓦里亚号星际飞船上的一名宇航员。</t>
   </si>
   <si>
-    <t>string/comment/备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>瓦里亚号？|“原本”？出什么事了？</t>
+  </si>
+  <si>
+    <t>Variainfo|whathappened</t>
+  </si>
+  <si>
+    <t>Variainfo</t>
   </si>
   <si>
     <t>我们的飞船在个什么卫星上坠毁了，我也不知道具体是在哪儿。</t>
   </si>
   <si>
+    <t>“原本”？出什么事了？</t>
+  </si>
+  <si>
     <t>我进了一个逃生舱，不过我不知道有没有别人也通过逃生舱逃生。</t>
   </si>
   <si>
@@ -120,43 +167,299 @@
     <t>我也不知道你是谁，在哪里。</t>
   </si>
   <si>
-    <t>瓦里亚号？|“原本”？出什么事了？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“原本”？出什么事了？</t>
-  </si>
-  <si>
-    <t>string[]/choiceGoTo/选择转到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>launch</t>
-  </si>
-  <si>
-    <t>whois</t>
-  </si>
-  <si>
-    <t>Variainfo</t>
-  </si>
-  <si>
-    <t>whois|Variainfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Variainfo|whathappened</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string/chapter/章节名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>你怎么会不知道？|你可以用下地图呀。</t>
+  </si>
+  <si>
+    <t>dontknow|usemap</t>
+  </si>
+  <si>
+    <t>dontknow</t>
+  </si>
+  <si>
+    <t>mapsuggest</t>
+  </si>
+  <si>
+    <t>==1</t>
+  </si>
+  <si>
+    <t>不知道，我真不知道。</t>
+  </si>
+  <si>
+    <t>你怎么会不知道？</t>
+  </si>
+  <si>
+    <t>我怎么可能不知道？！我怎么不像那些了不起的宇航员一样，把整个星区地图都背了下来？！</t>
+  </si>
+  <si>
+    <t>因为我是个学生！懂吗？</t>
+  </si>
+  <si>
+    <t>我在一场理科生抽奖活动里中了奖，所以才参加了这次远航。</t>
+  </si>
+  <si>
+    <t>在瓦里亚号上对老鼠和地衣什么的进行零重力实验，懂了吧？</t>
+  </si>
+  <si>
+    <t>我身边必须随时有一名有经验的导师陪同。</t>
+  </si>
+  <si>
+    <t>这么说吧，我的学员手册上从来就没有提过什么紧急迫降的事儿！</t>
+  </si>
+  <si>
+    <t>好了好了，冷静点。|哇喔，放轻松。</t>
+  </si>
+  <si>
+    <t>calmdown|whoatakeiteasy</t>
+  </si>
+  <si>
+    <t>calmdown</t>
+  </si>
+  <si>
+    <t>哎，对不起。你也看出来了，我现在是整个人都不好了！</t>
+  </si>
+  <si>
+    <t>我们针对各种情况进行了训练，但是现在的情况绝不是其中之一！</t>
+  </si>
+  <si>
+    <t>不过没事儿。没问题。我只要找到别的生还者就行了，他们会知道怎么处理的。</t>
+  </si>
+  <si>
+    <t>除非……</t>
+  </si>
+  <si>
+    <t>nosurvivors</t>
+  </si>
+  <si>
+    <t>要是没有别的生还者了怎么办？</t>
+  </si>
+  <si>
+    <t>要是只有我活着怎么办？</t>
+  </si>
+  <si>
+    <t>噢，天哪，阿雅船长可能已经死了，其他人恐怕也没活下来。科尔比……糟糕！科尔比。</t>
+  </si>
+  <si>
+    <t>要是……要是这里真的只剩我一个人怎么办？</t>
+  </si>
+  <si>
+    <t>放轻松，深呼吸。|想聊聊科尔比吗？</t>
+  </si>
+  <si>
+    <t>justbreathe|talkColby</t>
+  </si>
+  <si>
+    <t>justbreathe</t>
+  </si>
+  <si>
+    <t>哎，你说得对。这里的空气能呼吸，干脆直接呼吸吧。</t>
+  </si>
+  <si>
+    <t>科尔比经常这么说：</t>
+  </si>
+  <si>
+    <t>“与其杞人忧天，不如专注当下。”</t>
+  </si>
+  <si>
+    <t>对，就直接呼吸吧。</t>
+  </si>
+  <si>
+    <t>好了，那么你现在在哪儿？|你受伤了吗？</t>
+  </si>
+  <si>
+    <t>whereareyou|areyouallright</t>
+  </si>
+  <si>
+    <t>sorryaboutearlier</t>
+  </si>
+  <si>
+    <t>没事儿，这么紧急的状况下，一般人说的话肯定辞不达意。</t>
+  </si>
+  <si>
+    <t>真高兴找到人帮我了。要是没有你，我都不知道该怎么办。</t>
+  </si>
+  <si>
+    <t>好了，先看看哪些是我们能处理的吧。</t>
+  </si>
+  <si>
+    <t>你现在在哪儿？|你受伤了吗？</t>
+  </si>
+  <si>
+    <t>message received</t>
+  </si>
+  <si>
+    <t>哦，谢天谢地！能联系到人，真是太好啊！</t>
+  </si>
+  <si>
+    <t>我等了好几个钟头了！</t>
+  </si>
+  <si>
+    <t>你是谁？|出了什么事？</t>
+  </si>
+  <si>
+    <t>whois|whathappened</t>
+  </si>
+  <si>
+    <t>whathappened</t>
+  </si>
+  <si>
+    <t>你还好吗？|你现在在哪？</t>
+  </si>
+  <si>
+    <t>areyouallright|whereareyou</t>
+  </si>
+  <si>
+    <t>usemap</t>
+  </si>
+  <si>
+    <t>=1</t>
+  </si>
+  <si>
+    <t>是啊，你想得倒挺美，就是有个小问题，那就是我，还有我的救生舱，在这里……</t>
+  </si>
+  <si>
+    <t>……可是导航室还在瓦里亚号里面呢。</t>
+  </si>
+  <si>
+    <t>而瓦里亚号呢，从南边那两道袅袅的黑烟来看，至少断成了两截，而且离我可不近。</t>
+  </si>
+  <si>
+    <t>所以，你要理解，“用下地图”可没那么容易。</t>
+  </si>
+  <si>
+    <t>你真的一点头绪都没有？|对不起，你没事儿吧？</t>
+  </si>
+  <si>
+    <t>dontknow|areyouallright</t>
+  </si>
+  <si>
+    <t>whoatakeiteasy</t>
+  </si>
+  <si>
+    <t>“放轻松”，说得倒轻巧！</t>
+  </si>
+  <si>
+    <t>我流落外太空，孤苦伶仃——说句心里话，我整个人都不好了！</t>
+  </si>
+  <si>
+    <t>一切都会好的，冷静点。|别耍小孩子脾气。</t>
+  </si>
+  <si>
+    <t>calmdown|dontbeababy</t>
+  </si>
+  <si>
+    <t>dontbeababy</t>
+  </si>
+  <si>
+    <t>“别耍小孩子脾气”？</t>
+  </si>
+  <si>
+    <t>哦，看来对你来说被困在荒凉星球上这种事倒是天天发生啊？</t>
+  </si>
+  <si>
+    <t>有没有人跟你说过，接听危机热线这活儿你可不怎么在行？</t>
+  </si>
+  <si>
+    <t>没跟你搭上话时，我感觉都要好点儿。</t>
+  </si>
+  <si>
+    <t>算了……我要去歇口气，评估一下状况。</t>
+  </si>
+  <si>
+    <t>等我想聊了，再联系你。</t>
+  </si>
+  <si>
+    <t>readytotalk</t>
+  </si>
+  <si>
+    <t>好吧，听着。我实在不想承认你哪怕有那么一点点对。</t>
+  </si>
+  <si>
+    <t>我可不想在这里唉声叹气，坐以待毙。我得采取行动了。</t>
+  </si>
+  <si>
+    <t>只是，请你……别忘了我真的吓得要屁滚尿流了，好吧？</t>
+  </si>
+  <si>
+    <t>我真的很庆幸能联系上你，真的，就是………请对我多包涵点，行吗？</t>
+  </si>
+  <si>
+    <t>刚才真不好意思。|你脸皮厚点就行了。</t>
+  </si>
+  <si>
+    <t>sorryaboutearlier|thickerskin</t>
+  </si>
+  <si>
+    <t>thickerskin</t>
+  </si>
+  <si>
+    <t>魂淡啊，你简直就是虎妈狼爸。</t>
+  </si>
+  <si>
+    <t>听着，我会将这个频道一直开着……</t>
+  </si>
+  <si>
+    <t>……不过这只是因为有你挂在线那头，总好过我对着空气自言自语。</t>
+  </si>
+  <si>
+    <t>不管你能帮什么忙都行。</t>
+  </si>
+  <si>
+    <t>你知道你在哪吗？|你没缺胳膊少腿吧？</t>
+  </si>
+  <si>
+    <t>whereareyou</t>
+  </si>
+  <si>
+    <t>对你这个问题，我唯一确定的答案是：“我被困了。”</t>
+  </si>
+  <si>
+    <t>要是你知道蛮荒在哪里的话，就朝那中间最荒的地方瞧，你就能找到我了。</t>
+  </si>
+  <si>
+    <t>toldname</t>
+  </si>
+  <si>
+    <t>==0</t>
+  </si>
+  <si>
+    <t>顺便说一句，我叫泰勒。我该一上来就自我介绍一下的。</t>
+  </si>
+  <si>
+    <t>瓦里亚号本来沿着轻缓的椭圆形轨道前往天仓四去。</t>
+  </si>
+  <si>
+    <t>我不知道我们是不是偏离了轨道，或者说偏离了多少。</t>
+  </si>
+  <si>
+    <t>出事时，我离舰桥还远着呢。</t>
+  </si>
+  <si>
+    <t>科尔比，她……她一把将我推进了一个救生舱，然后转身跑去帮其他人去了。她就是这么个人。</t>
+  </si>
+  <si>
+    <t>不知道是震的，还是吓的，我在救生舱里晕了过去……我不知道有多久……</t>
+  </si>
+  <si>
+    <t>等我醒过来，我就在这儿了。</t>
+  </si>
+  <si>
+    <t>描述一下你说的“这儿”。|想谈谈科尔比吗？</t>
+  </si>
+  <si>
+    <t>describehere|talkColby</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -164,28 +467,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -207,56 +503,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -268,30 +531,18 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="19">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="8">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -590,7 +841,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -630,71 +880,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="37.83203125" customWidth="1"/>
-    <col min="5" max="6" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="52.5" customWidth="1"/>
+    <col min="5" max="8" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -702,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -713,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -724,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -735,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -746,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -757,30 +1020,30 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -788,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -799,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -810,13 +1073,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -827,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -841,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -852,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -863,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -874,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -885,34 +1148,985 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
       <c r="C21">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58"/>
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>118</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H86">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>